--- a/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_2007_Tavakollizadeh_and_Kashefipur_Paper02_Severn.xlsx
+++ b/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_2007_Tavakollizadeh_and_Kashefipur_Paper02_Severn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
   <si>
     <t>Project Name</t>
   </si>
@@ -437,9 +437,6 @@
     <t>St7 @ 13.775 (km)</t>
   </si>
   <si>
-    <t>Li et al. 2 (1998)</t>
-  </si>
-  <si>
     <t>None Dispersive Model</t>
   </si>
   <si>
@@ -456,6 +453,21 @@
   </si>
   <si>
     <t>Li et al. (1998) [1]</t>
+  </si>
+  <si>
+    <t>Li et al (1998)</t>
+  </si>
+  <si>
+    <t>Li et al 2 (1998)</t>
+  </si>
+  <si>
+    <t>Deng et al (2001)</t>
+  </si>
+  <si>
+    <t>Disley et al (2015)</t>
+  </si>
+  <si>
+    <t>Noori et al (2017)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,11 +765,6 @@
       <name val="Cutive Mono"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -982,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1356,6 +1363,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1640,15 +1662,6 @@
     <xf numFmtId="164" fontId="20" fillId="32" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1675,6 +1688,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4728,7 +4750,7 @@
       </c>
       <c r="B2" s="49" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>Dx_1974_McQuivey_and_Keefer_Paper02_Severn.xlsx</v>
+        <v>Dx_2009_Sahay_and_Dutta_Paper02_Severn.xlsx</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4850,7 +4872,7 @@
       </c>
       <c r="B6" s="50" t="str">
         <f ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"),1)-1)</f>
-        <v>C:\Users\Mostafa\Desktop\watum_Working_Branch\</v>
+        <v>C:\Users\Mostafa\Desktop\watum_Working_Branch\archived modeled files\Severn River\Raw and un-modeled excel files to be run by WATUM\</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4934,7 +4956,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="52">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4964,7 +4986,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="54">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -7202,8 +7224,8 @@
       <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="95" t="s">
-        <v>115</v>
+      <c r="X1" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="Y1" s="17" t="s">
         <v>45</v>
@@ -7253,11 +7275,11 @@
       <c r="AN1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AO1" s="98" t="s">
+      <c r="AO1" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" s="95" t="s">
         <v>113</v>
-      </c>
-      <c r="AP1" s="98" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -7329,7 +7351,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>0.21</v>
       </c>
-      <c r="X2" s="96">
+      <c r="X2" s="93">
         <v>1.0510314000000001</v>
       </c>
       <c r="Y2" s="76" t="str">
@@ -7346,11 +7368,11 @@
       </c>
       <c r="AB2" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="AC2" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD2" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
@@ -7358,7 +7380,7 @@
       </c>
       <c r="AE2" s="75">
         <f t="shared" ref="AE2:AE3" si="0">Delta_T__seconds</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7378,7 +7400,7 @@
       </c>
       <c r="AJ2" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>485.17318473479997</v>
+        <v>808.62197455799992</v>
       </c>
       <c r="AK2" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7394,11 +7416,11 @@
       <c r="AN2" s="75">
         <v>0</v>
       </c>
-      <c r="AO2" s="99">
+      <c r="AO2" s="96">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>3</v>
-      </c>
-      <c r="AP2" s="99">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="96">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7472,7 +7494,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>1.175</v>
       </c>
-      <c r="X3" s="96">
+      <c r="X3" s="93">
         <v>0.22527449999999999</v>
       </c>
       <c r="Y3" s="76" t="str">
@@ -7489,19 +7511,19 @@
       </c>
       <c r="AB3" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="AC3" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>19.583333333333332</v>
+        <v>11.75</v>
       </c>
       <c r="AD3" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AE3" s="75">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF3" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7521,7 +7543,7 @@
       </c>
       <c r="AJ3" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>406.6923060318</v>
+        <v>677.82051005300002</v>
       </c>
       <c r="AK3" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7537,11 +7559,11 @@
       <c r="AN3" s="75">
         <v>1</v>
       </c>
-      <c r="AO3" s="99">
+      <c r="AO3" s="96">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>19</v>
-      </c>
-      <c r="AP3" s="99">
+        <v>11</v>
+      </c>
+      <c r="AP3" s="96">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7615,7 +7637,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>2.875</v>
       </c>
-      <c r="X4" s="97">
+      <c r="X4" s="94">
         <v>0.11053590000000001</v>
       </c>
       <c r="Y4" s="76" t="str">
@@ -7632,19 +7654,19 @@
       </c>
       <c r="AB4" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>815</v>
+        <v>271</v>
       </c>
       <c r="AC4" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>47.916666666666664</v>
+        <v>28.75</v>
       </c>
       <c r="AD4" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>19.583333333333332</v>
+        <v>11.75</v>
       </c>
       <c r="AE4" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF4" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7664,7 +7686,7 @@
       </c>
       <c r="AJ4" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>570.05166895799994</v>
+        <v>950.08611492999989</v>
       </c>
       <c r="AK4" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7676,11 +7698,11 @@
         <v>1.1333</v>
       </c>
       <c r="AN4" s="75"/>
-      <c r="AO4" s="99">
+      <c r="AO4" s="96">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>47</v>
-      </c>
-      <c r="AP4" s="99">
+        <v>28</v>
+      </c>
+      <c r="AP4" s="96">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7754,7 +7776,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>5.2750000000000004</v>
       </c>
-      <c r="X5" s="97">
+      <c r="X5" s="94">
         <v>5.8002699999999997E-2</v>
       </c>
       <c r="Y5" s="76" t="str">
@@ -7771,19 +7793,19 @@
       </c>
       <c r="AB5" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>1776</v>
+        <v>592</v>
       </c>
       <c r="AC5" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>87.916666666666671</v>
+        <v>52.75</v>
       </c>
       <c r="AD5" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>47.916666666666664</v>
+        <v>28.75</v>
       </c>
       <c r="AE5" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF5" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7803,7 +7825,7 @@
       </c>
       <c r="AJ5" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>665.15306118480009</v>
+        <v>1108.588435308</v>
       </c>
       <c r="AK5" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7815,11 +7837,11 @@
         <v>2.4666999999999999</v>
       </c>
       <c r="AN5" s="75"/>
-      <c r="AO5" s="99">
+      <c r="AO5" s="96">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>87</v>
-      </c>
-      <c r="AP5" s="99">
+        <v>52</v>
+      </c>
+      <c r="AP5" s="96">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7893,7 +7915,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>7.7750000000000004</v>
       </c>
-      <c r="X6" s="97">
+      <c r="X6" s="94">
         <v>3.4605400000000001E-2</v>
       </c>
       <c r="Y6" s="76" t="str">
@@ -7910,19 +7932,19 @@
       </c>
       <c r="AB6" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>2687</v>
+        <v>895</v>
       </c>
       <c r="AC6" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>129.58333333333334</v>
+        <v>77.75</v>
       </c>
       <c r="AD6" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>87.916666666666671</v>
+        <v>52.75</v>
       </c>
       <c r="AE6" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF6" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7942,7 +7964,7 @@
       </c>
       <c r="AJ6" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>1105.8344561772001</v>
+        <v>1843.0574269620004</v>
       </c>
       <c r="AK6" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7954,11 +7976,11 @@
         <v>3.7332999999999998</v>
       </c>
       <c r="AN6" s="75"/>
-      <c r="AO6" s="99">
+      <c r="AO6" s="96">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>129</v>
-      </c>
-      <c r="AP6" s="99">
+        <v>77</v>
+      </c>
+      <c r="AP6" s="96">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8032,7 +8054,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>10.275</v>
       </c>
-      <c r="X7" s="97">
+      <c r="X7" s="94">
         <v>2.1080000000000002E-2</v>
       </c>
       <c r="Y7" s="76" t="str">
@@ -8049,19 +8071,19 @@
       </c>
       <c r="AB7" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>3623</v>
+        <v>1207</v>
       </c>
       <c r="AC7" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>171.25</v>
+        <v>102.75</v>
       </c>
       <c r="AD7" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>129.58333333333334</v>
+        <v>77.75</v>
       </c>
       <c r="AE7" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF7" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8081,7 +8103,7 @@
       </c>
       <c r="AJ7" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>787.92385421159997</v>
+        <v>1313.2064236859999</v>
       </c>
       <c r="AK7" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8093,11 +8115,11 @@
         <v>5.0332999999999997</v>
       </c>
       <c r="AN7" s="75"/>
-      <c r="AO7" s="99">
+      <c r="AO7" s="96">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>171</v>
-      </c>
-      <c r="AP7" s="99">
+        <v>102</v>
+      </c>
+      <c r="AP7" s="96">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8171,7 +8193,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>13.775</v>
       </c>
-      <c r="X8" s="97">
+      <c r="X8" s="94">
         <v>2.0655E-2</v>
       </c>
       <c r="Y8" s="76" t="str">
@@ -8188,19 +8210,19 @@
       </c>
       <c r="AB8" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>4706</v>
+        <v>1568</v>
       </c>
       <c r="AC8" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>229.58333333333334</v>
+        <v>137.75</v>
       </c>
       <c r="AD8" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>171.25</v>
+        <v>102.75</v>
       </c>
       <c r="AE8" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF8" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8220,7 +8242,7 @@
       </c>
       <c r="AJ8" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>883.62973550519985</v>
+        <v>1472.7162258419999</v>
       </c>
       <c r="AK8" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8232,11 +8254,11 @@
         <v>6.5369000000000002</v>
       </c>
       <c r="AN8" s="75"/>
-      <c r="AO8" s="99">
+      <c r="AO8" s="96">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>229</v>
-      </c>
-      <c r="AP8" s="99">
+        <v>137</v>
+      </c>
+      <c r="AP8" s="96">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8329,7 +8351,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8391,7 +8413,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="60">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="B2" s="13">
         <v>1000</v>
@@ -8400,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="60">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
@@ -8438,8 +8460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8448,7 +8470,7 @@
     <col min="16" max="16" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
@@ -8456,236 +8478,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="P2" s="89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="99" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H4">
         <v>25</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="99" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
-      <c r="P6" s="90" t="s">
+      <c r="P6" s="99" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="P7" s="99" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
       <c r="H8">
         <v>200</v>
       </c>
-      <c r="P8" s="90" t="s">
+      <c r="P8" s="99" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
       <c r="H9">
         <v>250</v>
       </c>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="99" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H10">
         <v>300</v>
       </c>
-      <c r="P10" s="90" t="s">
+      <c r="P10" s="99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>350</v>
       </c>
-      <c r="P11" s="90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>400</v>
       </c>
-      <c r="P12" s="91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>450</v>
       </c>
-      <c r="P13" s="90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>500</v>
       </c>
-      <c r="P14" s="90" t="s">
+      <c r="P14" s="99" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>550</v>
       </c>
-      <c r="P15" s="90" t="s">
+      <c r="P15" s="99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>600</v>
       </c>
-      <c r="P16" s="90" t="s">
+      <c r="P16" s="99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>650</v>
       </c>
-      <c r="P17" s="90" t="s">
+      <c r="P17" s="99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>700</v>
       </c>
-      <c r="P18" s="90" t="s">
+      <c r="P18" s="99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>750</v>
       </c>
-      <c r="P19" s="90" t="s">
+      <c r="P19" s="99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>800</v>
       </c>
-      <c r="P20" s="90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>900</v>
       </c>
-      <c r="P21" s="90" t="s">
-        <v>102</v>
+      <c r="P21" s="100" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>1000</v>
       </c>
-      <c r="P22" s="92" t="s">
-        <v>111</v>
+      <c r="P22" s="100" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>1250</v>
       </c>
-      <c r="P23" s="92"/>
+      <c r="P23" s="89"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>1500</v>
       </c>
-      <c r="P24" s="93"/>
+      <c r="P24" s="90"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="P25" s="94"/>
+      <c r="P25" s="91"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P3" location="_ENREF_6" tooltip="Elder, 1959 #121" display="_ENREF_6"/>
     <hyperlink ref="P4" location="_ENREF_8" tooltip="Fischer, 1966 #31" display="_ENREF_8"/>
-    <hyperlink ref="P5" location="_ENREF_16" tooltip="McQuivey, 1974 #104" display="_ENREF_16"/>
+    <hyperlink ref="P5" location="_ENREF_15" tooltip="McQuivey, 1974 #104" display="_ENREF_15"/>
     <hyperlink ref="P6" location="_ENREF_9" tooltip="Fischer, 1975 #40" display="_ENREF_9"/>
-    <hyperlink ref="P7" location="_ENREF_15" tooltip="Liu, 1977 #103" display="_ENREF_15"/>
-    <hyperlink ref="P8" location="_ENREF_13" tooltip="Koussis, 1988 #101" display="_ENREF_13"/>
-    <hyperlink ref="P9" location="_ENREF_11" tooltip="Iwasa, 1991 #68" display="_ENREF_11"/>
-    <hyperlink ref="P10" location="_ENREF_20" tooltip="Seo, 1998 #95" display="_ENREF_20"/>
-    <hyperlink ref="P11" location="_ENREF_14" tooltip="Li, 1998 #106" display="_ENREF_14"/>
-    <hyperlink ref="P13" location="_ENREF_4" tooltip="Deng, 2001 #65" display="_ENREF_4"/>
-    <hyperlink ref="P14" location="_ENREF_12" tooltip="Kashefipour, 2002 #84" display="_ENREF_12"/>
-    <hyperlink ref="P15" location="_ENREF_22" tooltip="Tavakollizadeh, 2007 #108" display="_ENREF_22"/>
-    <hyperlink ref="P16" location="_ENREF_19" tooltip="Sahay, 2009 #64" display="_ENREF_19"/>
-    <hyperlink ref="P17" location="_ENREF_2" tooltip="Azamathulla, 2011 #110" display="_ENREF_2"/>
-    <hyperlink ref="P18" location="_ENREF_7" tooltip="Etemadshahidi, 2012 #78" display="_ENREF_7"/>
-    <hyperlink ref="P19" location="_ENREF_23" tooltip="Zeng, 2014 #101" display="_ENREF_23"/>
-    <hyperlink ref="P20" location="_ENREF_5" tooltip="Disley, 2015 #18" display="_ENREF_5"/>
-    <hyperlink ref="P21" location="_ENREF_17" tooltip="Noori, 2017 #112" display="_ENREF_17"/>
+    <hyperlink ref="P7" location="_ENREF_14" tooltip="Liu, 1977 #103" display="_ENREF_14"/>
+    <hyperlink ref="P8" location="_ENREF_12" tooltip="Koussis, 1988 #101" display="_ENREF_12"/>
+    <hyperlink ref="P9" location="_ENREF_10" tooltip="Iwasa, 1991 #68" display="_ENREF_10"/>
+    <hyperlink ref="P10" location="_ENREF_19" tooltip="Seo, 1998 #95" display="_ENREF_19"/>
+    <hyperlink ref="P11" location="_ENREF_13" tooltip="Li, 1998 #106" display="_ENREF_13"/>
+    <hyperlink ref="P12" location="_ENREF_4" tooltip="Deng, 2001 #65" display="_ENREF_4"/>
+    <hyperlink ref="P13" location="_ENREF_11" tooltip="Kashefipour, 2002 #84" display="_ENREF_11"/>
+    <hyperlink ref="P14" location="_ENREF_21" tooltip="Tavakollizadeh, 2007 #108" display="_ENREF_21"/>
+    <hyperlink ref="P15" location="_ENREF_18" tooltip="Sahay, 2009 #64" display="_ENREF_18"/>
+    <hyperlink ref="P16" location="_ENREF_2" tooltip="Azamathulla, 2011 #110" display="_ENREF_2"/>
+    <hyperlink ref="P17" location="_ENREF_7" tooltip="Etemadshahidi, 2012 #78" display="_ENREF_7"/>
+    <hyperlink ref="P18" location="_ENREF_22" tooltip="Zeng, 2014 #101" display="_ENREF_22"/>
+    <hyperlink ref="P19" location="_ENREF_5" tooltip="Disley, 2015 #18" display="_ENREF_5"/>
+    <hyperlink ref="P20" location="_ENREF_16" tooltip="Noori, 2017 #112" display="_ENREF_16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8694,10 +8716,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8723,62 +8745,62 @@
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="100" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:24" s="97" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="100" t="s">
+      <c r="J1" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="100" t="s">
+      <c r="N1" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="100" t="s">
+      <c r="O1" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="Q1" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="100" t="s">
+      <c r="R1" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="97" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9211,63 +9233,10 @@
       <c r="X8" s="38"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S9" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
       <c r="T9" s="38"/>
       <c r="U9" s="38"/>
       <c r="V9" s="38"/>
@@ -9297,117 +9266,23 @@
       <c r="X11" s="38"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-    </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>0.68015664268852827</v>
-      </c>
-      <c r="D14">
-        <v>28625.050200190482</v>
-      </c>
-      <c r="E14">
-        <v>8397713719.6893826</v>
-      </c>
-      <c r="F14">
-        <v>16659637699.36138</v>
-      </c>
-      <c r="G14">
-        <v>5.4214850129549559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>0.31322849740396147</v>
-      </c>
-      <c r="D15">
-        <v>68852.677170974173</v>
-      </c>
-      <c r="E15">
-        <v>1191998690413.3914</v>
-      </c>
-      <c r="F15">
-        <v>1694556080269.5063</v>
-      </c>
-      <c r="G15">
-        <v>10.147704164784699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>0.26698111766955995</v>
-      </c>
-      <c r="D16">
-        <v>39274.013348111286</v>
-      </c>
-      <c r="E16">
-        <v>12738920.171506403</v>
-      </c>
-      <c r="F16">
-        <v>14182975.825430201</v>
-      </c>
-      <c r="G16">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>0.35933783316164253</v>
-      </c>
-      <c r="D17">
-        <v>64026.44107621452</v>
-      </c>
-      <c r="E17">
-        <v>11660815.389813524</v>
-      </c>
-      <c r="F17">
-        <v>15746001.233835166</v>
-      </c>
-      <c r="G17">
-        <v>149551654.81536677</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>0.34387364708602081</v>
-      </c>
-      <c r="D18">
-        <v>9147441664.3559856</v>
-      </c>
-      <c r="E18">
-        <v>1.9290048029375352E+18</v>
-      </c>
-      <c r="F18">
-        <v>2.801819736520597E+18</v>
-      </c>
-      <c r="G18">
-        <v>18.279787512399285</v>
-      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+    </row>
+    <row r="17" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M18" s="34"/>
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
@@ -9416,22 +9291,7 @@
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>0.33506683054146424</v>
-      </c>
-      <c r="D19">
-        <v>621158150.54461765</v>
-      </c>
-      <c r="E19">
-        <v>2.2739472572257246E+20</v>
-      </c>
-      <c r="F19">
-        <v>3.6764427167066312E+20</v>
-      </c>
-      <c r="G19">
-        <v>1.3901698702784904</v>
-      </c>
+    <row r="19" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M19" s="34"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
@@ -9441,22 +9301,7 @@
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>0.45280611092443795</v>
-      </c>
-      <c r="D20">
-        <v>2723227.9512344319</v>
-      </c>
-      <c r="E20">
-        <v>7078511204.2171917</v>
-      </c>
-      <c r="F20">
-        <v>10784896704.219383</v>
-      </c>
-      <c r="G20">
-        <v>6.92028242188655</v>
-      </c>
+    <row r="20" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M20" s="34"/>
       <c r="N20" s="38"/>
       <c r="O20" s="38"/>
@@ -9466,7 +9311,7 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M21" s="34"/>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
@@ -9476,7 +9321,7 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M22" s="34"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
@@ -9486,7 +9331,7 @@
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M23" s="34"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
@@ -9496,8 +9341,8 @@
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M24" s="34"/>
+    <row r="24" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M24" s="35"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
       <c r="P24" s="38"/>
@@ -9506,8 +9351,8 @@
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M25" s="35"/>
+    <row r="25" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M25" s="34"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
@@ -9515,16 +9360,6 @@
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M26" s="34"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
